--- a/data/trans_orig/P22_R4-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P22_R4-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>21394</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12853</v>
+        <v>13123</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>33540</v>
+        <v>33684</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03667575223525587</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02203353938391654</v>
+        <v>0.0224962633751114</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05749768997833809</v>
+        <v>0.05774531354492134</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>39</v>
@@ -765,19 +765,19 @@
         <v>41007</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>29761</v>
+        <v>30618</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>55600</v>
+        <v>56376</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04446002926606914</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03226700459277036</v>
+        <v>0.03319652725425934</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06028143201060277</v>
+        <v>0.06112351126127922</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>59</v>
@@ -786,19 +786,19 @@
         <v>62401</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>48699</v>
+        <v>47496</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>80601</v>
+        <v>78814</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.041444236823173</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03234381052386325</v>
+        <v>0.031545349158005</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0535320439671912</v>
+        <v>0.05234541309985155</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>561929</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>549783</v>
+        <v>549639</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>570470</v>
+        <v>570200</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9633242477647441</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9425023100216626</v>
+        <v>0.9422546864550783</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9779664606160835</v>
+        <v>0.9775037366248885</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>846</v>
@@ -836,19 +836,19 @@
         <v>881326</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>866733</v>
+        <v>865957</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>892572</v>
+        <v>891715</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9555399707339308</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9397185679893972</v>
+        <v>0.9388764887387208</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9677329954072297</v>
+        <v>0.9668034727457407</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1399</v>
@@ -857,19 +857,19 @@
         <v>1443255</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1425055</v>
+        <v>1426842</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1456957</v>
+        <v>1458160</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.958555763176827</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9464679560328089</v>
+        <v>0.9476545869001485</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9676561894761367</v>
+        <v>0.968454650841995</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>70502</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>56481</v>
+        <v>54872</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>88925</v>
+        <v>87355</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06547645557151144</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05245420265035171</v>
+        <v>0.05096033068260778</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08258595056545813</v>
+        <v>0.08112760793478105</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>72</v>
@@ -982,19 +982,19 @@
         <v>75205</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>59791</v>
+        <v>59172</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>92757</v>
+        <v>91818</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07119300835655953</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0566013241894693</v>
+        <v>0.05601491706353742</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08780809360884473</v>
+        <v>0.08691918808104603</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>143</v>
@@ -1003,19 +1003,19 @@
         <v>145708</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>124489</v>
+        <v>121647</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>170871</v>
+        <v>172113</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0683073941967834</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05835993968765187</v>
+        <v>0.05702798206154335</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.08010399268600828</v>
+        <v>0.08068616183066109</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1006257</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>987834</v>
+        <v>989404</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1020278</v>
+        <v>1021887</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9345235444284886</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9174140494345416</v>
+        <v>0.9188723920652189</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9475457973496483</v>
+        <v>0.9490396693173921</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>955</v>
@@ -1053,19 +1053,19 @@
         <v>981152</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>963600</v>
+        <v>964539</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>996566</v>
+        <v>997185</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9288069916434405</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9121919063911552</v>
+        <v>0.913080811918954</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9433986758105307</v>
+        <v>0.9439850829364625</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1938</v>
@@ -1074,19 +1074,19 @@
         <v>1987409</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1962246</v>
+        <v>1961004</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2008628</v>
+        <v>2011470</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9316926058032166</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9198960073139917</v>
+        <v>0.919313838169339</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9416400603123481</v>
+        <v>0.9429720179384566</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>143894</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>123560</v>
+        <v>120819</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>168559</v>
+        <v>165930</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.128632212206477</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1104549808966669</v>
+        <v>0.1080052728905608</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1506817751230793</v>
+        <v>0.1483315900191503</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>103</v>
@@ -1199,19 +1199,19 @@
         <v>108329</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>91456</v>
+        <v>89884</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>129913</v>
+        <v>130979</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.109082270463471</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09209224500556835</v>
+        <v>0.09050893143905067</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1308167954241699</v>
+        <v>0.131890150053329</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>243</v>
@@ -1220,19 +1220,19 @@
         <v>252222</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>224127</v>
+        <v>225289</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>282681</v>
+        <v>285564</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.119438398985856</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1061340008832266</v>
+        <v>0.1066844227869857</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1338619367706883</v>
+        <v>0.1352271846166992</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>974749</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>950084</v>
+        <v>952713</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>995083</v>
+        <v>997824</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8713677877935231</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8493182248769208</v>
+        <v>0.8516684099808497</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8895450191033333</v>
+        <v>0.8919947271094393</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>878</v>
@@ -1270,19 +1270,19 @@
         <v>884763</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>863179</v>
+        <v>862113</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>901636</v>
+        <v>903208</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8909177295365289</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8691832045758301</v>
+        <v>0.8681098499466711</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9079077549944317</v>
+        <v>0.9094910685609493</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1838</v>
@@ -1291,19 +1291,19 @@
         <v>1859513</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1829054</v>
+        <v>1826171</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1887608</v>
+        <v>1886446</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8805616010141439</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8661380632293116</v>
+        <v>0.8647728153833008</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8938659991167734</v>
+        <v>0.8933155772130142</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>108637</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>91068</v>
+        <v>91080</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>127507</v>
+        <v>127504</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.243747843400648</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2043287189261873</v>
+        <v>0.2043537277080955</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2860856629203371</v>
+        <v>0.2860793715489643</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>90</v>
@@ -1416,19 +1416,19 @@
         <v>92129</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>76075</v>
+        <v>76926</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>108827</v>
+        <v>111109</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2700464418295365</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2229891080006118</v>
+        <v>0.2254846755884183</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3189928474864175</v>
+        <v>0.3256814429644281</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>195</v>
@@ -1437,19 +1437,19 @@
         <v>200766</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>176908</v>
+        <v>177694</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>224853</v>
+        <v>229260</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2551501878668631</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2248291813090153</v>
+        <v>0.2258288787437951</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2857623186648281</v>
+        <v>0.2913623737443866</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>337059</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>318189</v>
+        <v>318192</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>354628</v>
+        <v>354616</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.756252156599352</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7139143370796629</v>
+        <v>0.7139206284510354</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7956712810738126</v>
+        <v>0.7956462722919044</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>249</v>
@@ -1487,19 +1487,19 @@
         <v>249029</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>232331</v>
+        <v>230049</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>265083</v>
+        <v>264232</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7299535581704635</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6810071525135828</v>
+        <v>0.6743185570355721</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7770108919993882</v>
+        <v>0.7745153244115818</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>579</v>
@@ -1508,19 +1508,19 @@
         <v>586088</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>562001</v>
+        <v>557594</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>609946</v>
+        <v>609160</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7448498121331369</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.714237681335172</v>
+        <v>0.7086376262556133</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7751708186909848</v>
+        <v>0.7741711212562049</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>344427</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>309166</v>
+        <v>308930</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>379435</v>
+        <v>378465</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1068182822090374</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09588267196420769</v>
+        <v>0.09580959050350708</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1176753640230968</v>
+        <v>0.117374456734468</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>304</v>
@@ -1633,19 +1633,19 @@
         <v>316670</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>281991</v>
+        <v>283074</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>348631</v>
+        <v>351632</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09558562024858279</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08511811501757137</v>
+        <v>0.08544489598783894</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1052330626790651</v>
+        <v>0.10613890592217</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>640</v>
@@ -1654,19 +1654,19 @@
         <v>661097</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>614318</v>
+        <v>613052</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>706764</v>
+        <v>710976</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1011259023136228</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09397030490865547</v>
+        <v>0.09377664225934007</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1081114596723084</v>
+        <v>0.1087558652526246</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>2879994</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2844986</v>
+        <v>2845956</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2915255</v>
+        <v>2915491</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8931817177909626</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.882324635976903</v>
+        <v>0.8826255432655321</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9041173280357923</v>
+        <v>0.904190409496493</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2928</v>
@@ -1704,19 +1704,19 @@
         <v>2996271</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2964310</v>
+        <v>2961309</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3030950</v>
+        <v>3029867</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9044143797514173</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8947669373209348</v>
+        <v>0.89386109407783</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9148818849824286</v>
+        <v>0.9145551040121611</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5754</v>
@@ -1725,19 +1725,19 @@
         <v>5876264</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5830597</v>
+        <v>5826385</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5923043</v>
+        <v>5924309</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8988740976863772</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8918885403276917</v>
+        <v>0.8912441347473755</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9060296950913446</v>
+        <v>0.9062233577406599</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>48794</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>36207</v>
+        <v>34930</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>64918</v>
+        <v>67622</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04674059935316667</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03468352289529184</v>
+        <v>0.03345995796678163</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0621859516743023</v>
+        <v>0.06477587068248943</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>37</v>
@@ -2090,19 +2090,19 @@
         <v>40752</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>28914</v>
+        <v>28972</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>55086</v>
+        <v>55603</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03638783552710694</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02581733604047767</v>
+        <v>0.02586925954098932</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0491874314042214</v>
+        <v>0.04964869398569653</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>80</v>
@@ -2111,19 +2111,19 @@
         <v>89546</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>70387</v>
+        <v>70918</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>109514</v>
+        <v>110196</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04138242605323484</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03252820097316244</v>
+        <v>0.03277376760671559</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05061061921793576</v>
+        <v>0.05092563551585857</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>995141</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>979017</v>
+        <v>976313</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1007728</v>
+        <v>1009005</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9532594006468333</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9378140483256976</v>
+        <v>0.9352241293175105</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9653164771047079</v>
+        <v>0.9665400420332184</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>994</v>
@@ -2161,19 +2161,19 @@
         <v>1079176</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1064842</v>
+        <v>1064325</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1091014</v>
+        <v>1090956</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9636121644728931</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9508125685957786</v>
+        <v>0.9503513060143035</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9741826639595224</v>
+        <v>0.9741307404590106</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1929</v>
@@ -2182,19 +2182,19 @@
         <v>2074317</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2054349</v>
+        <v>2053667</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2093476</v>
+        <v>2092945</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9586175739467652</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9493893807820643</v>
+        <v>0.9490743644841413</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9674717990268376</v>
+        <v>0.9672262323932844</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>60773</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>46849</v>
+        <v>46852</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>77363</v>
+        <v>77606</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06226169800612193</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04799676096954233</v>
+        <v>0.04799922215209682</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07925755458915706</v>
+        <v>0.0795066738336012</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>66</v>
@@ -2307,19 +2307,19 @@
         <v>74859</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>58530</v>
+        <v>58884</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>94342</v>
+        <v>92848</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.06841090652574452</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05348797276831536</v>
+        <v>0.05381184710930667</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08621522706543289</v>
+        <v>0.08485010081772251</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>125</v>
@@ -2328,19 +2328,19 @@
         <v>135633</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>114358</v>
+        <v>111333</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>162572</v>
+        <v>160379</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06551179309857018</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05523583605948308</v>
+        <v>0.05377502092871086</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07852381567257873</v>
+        <v>0.07746456640754039</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>915319</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>898729</v>
+        <v>898486</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>929243</v>
+        <v>929240</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9377383019938781</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9207424454108429</v>
+        <v>0.9204933261663987</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9520032390304579</v>
+        <v>0.9520007778479032</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>954</v>
@@ -2378,19 +2378,19 @@
         <v>1019403</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>999920</v>
+        <v>1001414</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1035732</v>
+        <v>1035378</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9315890934742554</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9137847729345672</v>
+        <v>0.9151498991822776</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9465120272316846</v>
+        <v>0.9461881528906934</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1818</v>
@@ -2399,19 +2399,19 @@
         <v>1934721</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1907782</v>
+        <v>1909975</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1955996</v>
+        <v>1959021</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9344882069014299</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9214761843274213</v>
+        <v>0.9225354335924597</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.944764163940517</v>
+        <v>0.9462249790712892</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>108114</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>90226</v>
+        <v>88390</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>130620</v>
+        <v>130019</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1221472254912395</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1019365205444346</v>
+        <v>0.09986286191620745</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1475736703772964</v>
+        <v>0.146895121302217</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>75</v>
@@ -2524,19 +2524,19 @@
         <v>82138</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>66090</v>
+        <v>66207</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>100587</v>
+        <v>101097</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09378667131938274</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07546283646248995</v>
+        <v>0.07559627432300414</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1148515899886864</v>
+        <v>0.1154345111014506</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>173</v>
@@ -2545,19 +2545,19 @@
         <v>190252</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>166932</v>
+        <v>165178</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>221236</v>
+        <v>220798</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1080419951478825</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09479867100102476</v>
+        <v>0.09380235659953688</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1256370405443442</v>
+        <v>0.1253885962602354</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>777001</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>754495</v>
+        <v>755096</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>794889</v>
+        <v>796725</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8778527745087605</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8524263296227035</v>
+        <v>0.8531048786977832</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8980634794555654</v>
+        <v>0.9001371380837926</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>746</v>
@@ -2595,19 +2595,19 @@
         <v>793658</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>775209</v>
+        <v>774699</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>809706</v>
+        <v>809589</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9062133286806172</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8851484100113136</v>
+        <v>0.8845654888985498</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.92453716353751</v>
+        <v>0.9244037256769962</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1478</v>
@@ -2616,19 +2616,19 @@
         <v>1570659</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1539675</v>
+        <v>1540113</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1593979</v>
+        <v>1595733</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8919580048521175</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8743629594556555</v>
+        <v>0.8746114037397646</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9052013289989751</v>
+        <v>0.9061976434004633</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>94872</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>75102</v>
+        <v>78753</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>115615</v>
+        <v>115037</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1886027113309129</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1493006098603928</v>
+        <v>0.1565599292259863</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2298405617084709</v>
+        <v>0.2286903567654691</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>63</v>
@@ -2741,19 +2741,19 @@
         <v>73212</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>58003</v>
+        <v>56859</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>92165</v>
+        <v>92530</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1617090793722542</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1281156894253684</v>
+        <v>0.1255900113056906</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2035727407959392</v>
+        <v>0.2043803829070603</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>141</v>
@@ -2762,19 +2762,19 @@
         <v>168083</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>144133</v>
+        <v>141192</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>193974</v>
+        <v>192945</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1758633975745701</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1508050877768726</v>
+        <v>0.1477276536322017</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2029529699049449</v>
+        <v>0.2018762927902418</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>408151</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>387408</v>
+        <v>387986</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>427921</v>
+        <v>424270</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8113972886690871</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.770159438291529</v>
+        <v>0.7713096432345309</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.850699390139607</v>
+        <v>0.8434400707740135</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>349</v>
@@ -2812,19 +2812,19 @@
         <v>379524</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>360571</v>
+        <v>360206</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>394733</v>
+        <v>395877</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8382909206277458</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7964272592040609</v>
+        <v>0.7956196170929397</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8718843105746317</v>
+        <v>0.8744099886943096</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>732</v>
@@ -2833,19 +2833,19 @@
         <v>787675</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>761784</v>
+        <v>762813</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>811625</v>
+        <v>814566</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.82413660242543</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7970470300950551</v>
+        <v>0.7981237072097582</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8491949122231275</v>
+        <v>0.8522723463677983</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>312553</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>271200</v>
+        <v>276889</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>348563</v>
+        <v>348304</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09170715703083476</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07957365330119347</v>
+        <v>0.0812427542924251</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1022729025974638</v>
+        <v>0.1021969109214045</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>241</v>
@@ -2958,19 +2958,19 @@
         <v>270961</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>236903</v>
+        <v>240393</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>306086</v>
+        <v>309233</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07648375056162005</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06687033990656775</v>
+        <v>0.06785541740627109</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08639848245982931</v>
+        <v>0.08728676439936107</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>519</v>
@@ -2979,19 +2979,19 @@
         <v>583514</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>537877</v>
+        <v>536835</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>642486</v>
+        <v>630918</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08394810359049876</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07738247833619455</v>
+        <v>0.07723257837156827</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.09243221389742365</v>
+        <v>0.09076797649254262</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3095611</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3059601</v>
+        <v>3059860</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3136964</v>
+        <v>3131275</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9082928429691652</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8977270974025361</v>
+        <v>0.8978030890785956</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9204263466988062</v>
+        <v>0.9187572457075749</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3043</v>
@@ -3029,19 +3029,19 @@
         <v>3271761</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3236636</v>
+        <v>3233489</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3305819</v>
+        <v>3302329</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.92351624943838</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9136015175401707</v>
+        <v>0.912713235600639</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9331296600934322</v>
+        <v>0.9321445825937289</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5957</v>
@@ -3050,19 +3050,19 @@
         <v>6367372</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6308400</v>
+        <v>6319968</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6413009</v>
+        <v>6414051</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9160518964095012</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9075677861025764</v>
+        <v>0.9092320235074575</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9226175216638055</v>
+        <v>0.9227674216284317</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>23841</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>15153</v>
+        <v>15523</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>36122</v>
+        <v>36923</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02115323976762197</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01344466853314536</v>
+        <v>0.01377256681974556</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03204972470072914</v>
+        <v>0.03276023722035471</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>30</v>
@@ -3415,19 +3415,19 @@
         <v>31066</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>20895</v>
+        <v>21037</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>43091</v>
+        <v>44964</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02475338981891732</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01664883670105381</v>
+        <v>0.0167624555406699</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0343350900126874</v>
+        <v>0.03582687319127082</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>51</v>
@@ -3436,19 +3436,19 @@
         <v>54907</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>41953</v>
+        <v>40822</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>71672</v>
+        <v>71341</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02305001360700057</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01761197317051518</v>
+        <v>0.01713685914488791</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03008799131409276</v>
+        <v>0.02994903375503628</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>1103222</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1090941</v>
+        <v>1090140</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1111910</v>
+        <v>1111540</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.978846760232378</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9679502752992707</v>
+        <v>0.9672397627796452</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9865553314668545</v>
+        <v>0.9862274331802544</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1154</v>
@@ -3486,19 +3486,19 @@
         <v>1223961</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1211936</v>
+        <v>1210063</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1234132</v>
+        <v>1233990</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9752466101810827</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9656649099873131</v>
+        <v>0.9641731268087298</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9833511632989463</v>
+        <v>0.9832375444593303</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2198</v>
@@ -3507,19 +3507,19 @@
         <v>2327183</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2310418</v>
+        <v>2310749</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2340137</v>
+        <v>2341268</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9769499863929995</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9699120086859071</v>
+        <v>0.9700509662449637</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9823880268294848</v>
+        <v>0.9828631408551121</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>54168</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>41261</v>
+        <v>41050</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>69791</v>
+        <v>69980</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05986421481485073</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04560052811821114</v>
+        <v>0.04536701792754584</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07713056390518487</v>
+        <v>0.07733911590698482</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>64</v>
@@ -3632,19 +3632,19 @@
         <v>71993</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>56383</v>
+        <v>56647</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>88943</v>
+        <v>89624</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07162030614418058</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05609148628895728</v>
+        <v>0.05635345307850585</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08848246513979892</v>
+        <v>0.08916042672081463</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>116</v>
@@ -3653,19 +3653,19 @@
         <v>126161</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>106696</v>
+        <v>105447</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>148999</v>
+        <v>150857</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0660511045294393</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05586009727270658</v>
+        <v>0.05520655326680555</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07800806520411582</v>
+        <v>0.07898050207586627</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>850678</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>835055</v>
+        <v>834866</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>863585</v>
+        <v>863796</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9401357851851493</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9228694360948152</v>
+        <v>0.9226608840930149</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9543994718817891</v>
+        <v>0.9546329820724536</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>886</v>
@@ -3703,19 +3703,19 @@
         <v>933211</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>916261</v>
+        <v>915580</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>948821</v>
+        <v>948557</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9283796938558194</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9115175348602012</v>
+        <v>0.9108395732791854</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9439085137110428</v>
+        <v>0.9436465469214942</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1712</v>
@@ -3724,19 +3724,19 @@
         <v>1783890</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1761052</v>
+        <v>1759194</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1803355</v>
+        <v>1804604</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9339488954705607</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9219919347958843</v>
+        <v>0.9210194979241337</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9441399027272934</v>
+        <v>0.9447934467331942</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>104099</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>84237</v>
+        <v>85887</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>123672</v>
+        <v>127678</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1263704687137111</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1022598108247468</v>
+        <v>0.1042618637476437</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1501311913518696</v>
+        <v>0.1549943052197593</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>76</v>
@@ -3849,19 +3849,19 @@
         <v>78188</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>62146</v>
+        <v>62044</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>96579</v>
+        <v>96152</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1014038692347431</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08059812864714376</v>
+        <v>0.08046535412938587</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1252548057940815</v>
+        <v>0.1247013786412245</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>171</v>
@@ -3870,19 +3870,19 @@
         <v>182287</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>156863</v>
+        <v>160443</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>207679</v>
+        <v>207503</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1142996783325528</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09835820008724983</v>
+        <v>0.1006029398115023</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1302211079261958</v>
+        <v>0.1301109314771691</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>719660</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>700087</v>
+        <v>696081</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>739522</v>
+        <v>737872</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.873629531286289</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8498688086481303</v>
+        <v>0.8450056947802408</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8977401891752532</v>
+        <v>0.8957381362523562</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>652</v>
@@ -3920,19 +3920,19 @@
         <v>692871</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>674480</v>
+        <v>674907</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>708913</v>
+        <v>709015</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8985961307652569</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8747451942059185</v>
+        <v>0.8752986213587755</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9194018713528562</v>
+        <v>0.9195346458706142</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1344</v>
@@ -3941,19 +3941,19 @@
         <v>1412531</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1387139</v>
+        <v>1387315</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1437955</v>
+        <v>1434375</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8857003216674472</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8697788920738044</v>
+        <v>0.869889068522831</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9016417999127503</v>
+        <v>0.8993970601884977</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>95508</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>77748</v>
+        <v>77805</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>116365</v>
+        <v>112530</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1884897686695419</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1534405603689533</v>
+        <v>0.1535522511656394</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2296512202572058</v>
+        <v>0.2220836682100231</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>81</v>
@@ -4066,19 +4066,19 @@
         <v>91833</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>74443</v>
+        <v>75356</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>111403</v>
+        <v>112489</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1875302242384134</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1520177668417609</v>
+        <v>0.1538822006041881</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2274925501051448</v>
+        <v>0.2297113039113441</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>167</v>
@@ -4087,19 +4087,19 @@
         <v>187341</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>164931</v>
+        <v>163868</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>215103</v>
+        <v>218326</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.188018183675253</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1655275038047458</v>
+        <v>0.1644599864698506</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2158807840507146</v>
+        <v>0.2191154147193855</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>411193</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>390336</v>
+        <v>394171</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>428953</v>
+        <v>428896</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8115102313304581</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7703487797427941</v>
+        <v>0.7779163317899769</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8465594396310467</v>
+        <v>0.8464477488343606</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>374</v>
@@ -4137,19 +4137,19 @@
         <v>397865</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>378295</v>
+        <v>377209</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>415255</v>
+        <v>414342</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8124697757615865</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7725074498948552</v>
+        <v>0.7702886960886559</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8479822331582391</v>
+        <v>0.8461177993958119</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>759</v>
@@ -4158,19 +4158,19 @@
         <v>809057</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>781295</v>
+        <v>778072</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>831467</v>
+        <v>832530</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.811981816324747</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7841192159492855</v>
+        <v>0.7808845852806147</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8344724961952543</v>
+        <v>0.8355400135301495</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>277616</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>246648</v>
+        <v>245816</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>312934</v>
+        <v>313842</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08256550931537816</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.07335546408703236</v>
+        <v>0.07310795129502184</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0930694683884272</v>
+        <v>0.0933395175954746</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>251</v>
@@ -4283,19 +4283,19 @@
         <v>273081</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>239775</v>
+        <v>241436</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>307741</v>
+        <v>306499</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0775579693210887</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06809875124284649</v>
+        <v>0.06857058855919128</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08740182695014932</v>
+        <v>0.08704905174491241</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>505</v>
@@ -4304,19 +4304,19 @@
         <v>550696</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>506474</v>
+        <v>506686</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>601105</v>
+        <v>602420</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08000404316025006</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07357944492558156</v>
+        <v>0.07361026634605519</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0873273281463231</v>
+        <v>0.08751834084469343</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3084753</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3049435</v>
+        <v>3048527</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3115721</v>
+        <v>3116553</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9174344906846218</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9069305316115729</v>
+        <v>0.9066604824045252</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9266445359129677</v>
+        <v>0.9268920487049781</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3066</v>
@@ -4354,19 +4354,19 @@
         <v>3247907</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3213247</v>
+        <v>3214489</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3281213</v>
+        <v>3279552</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9224420306789113</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9125981730498507</v>
+        <v>0.9129509482550876</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9319012487571535</v>
+        <v>0.9314294114408087</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6013</v>
@@ -4375,19 +4375,19 @@
         <v>6332661</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6282252</v>
+        <v>6280937</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6376883</v>
+        <v>6376671</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9199959568397499</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.912672671853677</v>
+        <v>0.9124816591553067</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9264205550744185</v>
+        <v>0.9263897336539448</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>16747</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9469</v>
+        <v>9632</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27939</v>
+        <v>28248</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03357822463590366</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01898592097607802</v>
+        <v>0.0193121422876785</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05601900750228409</v>
+        <v>0.05663880909006105</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>39</v>
@@ -4740,19 +4740,19 @@
         <v>31184</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>22593</v>
+        <v>22414</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>43977</v>
+        <v>43297</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05000723932224196</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03623122926182742</v>
+        <v>0.03594382961553944</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07052349958441637</v>
+        <v>0.06943349288499129</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>54</v>
@@ -4761,19 +4761,19 @@
         <v>47930</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>35082</v>
+        <v>35342</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>63653</v>
+        <v>62124</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04270647056001337</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03125869903532696</v>
+        <v>0.03148986118841762</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0567152018365398</v>
+        <v>0.05535331051553296</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>481992</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>470800</v>
+        <v>470491</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>489270</v>
+        <v>489107</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9664217753640963</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9439809924977158</v>
+        <v>0.9433611909099386</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9810140790239219</v>
+        <v>0.9806878577123214</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>822</v>
@@ -4811,19 +4811,19 @@
         <v>592396</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>579603</v>
+        <v>580283</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>600987</v>
+        <v>601166</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9499927606777578</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9294765004155834</v>
+        <v>0.9305665071150087</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9637687707381724</v>
+        <v>0.9640561703844605</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1262</v>
@@ -4832,19 +4832,19 @@
         <v>1074390</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1058667</v>
+        <v>1060196</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1087238</v>
+        <v>1086978</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9572935294399867</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9432847981634601</v>
+        <v>0.944646689484467</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.968741300964673</v>
+        <v>0.9685101388115824</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>50216</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>37732</v>
+        <v>37695</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>67216</v>
+        <v>68802</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05230039450371658</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03929812862646675</v>
+        <v>0.03925990820466893</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07000681511875538</v>
+        <v>0.0716587438085686</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>106</v>
@@ -4957,19 +4957,19 @@
         <v>79907</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>65791</v>
+        <v>65499</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>96859</v>
+        <v>97466</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07161082884534375</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05896018441112732</v>
+        <v>0.0586987753174709</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.08680277629016135</v>
+        <v>0.08734697003893206</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>153</v>
@@ -4978,19 +4978,19 @@
         <v>130122</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>110589</v>
+        <v>109625</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>152518</v>
+        <v>152150</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06267981660813306</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05327041869783743</v>
+        <v>0.05280617244913294</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07346760462252101</v>
+        <v>0.07329066058484586</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>909921</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>892921</v>
+        <v>891335</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>922405</v>
+        <v>922442</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9476996054962835</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9299931848812445</v>
+        <v>0.9283412561914314</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9607018713735329</v>
+        <v>0.9607400917953312</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1501</v>
@@ -5028,19 +5028,19 @@
         <v>1035942</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1018990</v>
+        <v>1018383</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1050058</v>
+        <v>1050350</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9283891711546562</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9131972237098395</v>
+        <v>0.912653029961068</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9410398155888731</v>
+        <v>0.9413012246825295</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2364</v>
@@ -5049,19 +5049,19 @@
         <v>1945864</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1923468</v>
+        <v>1923836</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1965397</v>
+        <v>1966361</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9373201833918672</v>
+        <v>0.9373201833918668</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.926532395377479</v>
+        <v>0.9267093394151542</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9467295813021627</v>
+        <v>0.9471938275508672</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>140446</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>118241</v>
+        <v>118362</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>167005</v>
+        <v>167018</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.134207824094478</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1129896602557237</v>
+        <v>0.1131054223236512</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1595873828227618</v>
+        <v>0.1596000925476897</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>212</v>
@@ -5174,19 +5174,19 @@
         <v>147247</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>128932</v>
+        <v>128967</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>164462</v>
+        <v>167259</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1405505826739603</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1230690020735082</v>
+        <v>0.1231019097550982</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1569826867373827</v>
+        <v>0.1596527862628364</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>338</v>
@@ -5195,19 +5195,19 @@
         <v>287692</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>259181</v>
+        <v>259183</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>320593</v>
+        <v>325482</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.137380963681708</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.123766185191728</v>
+        <v>0.1237668138305586</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1530917146391307</v>
+        <v>0.155426452556374</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>906033</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>879474</v>
+        <v>879461</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>928238</v>
+        <v>928117</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.865792175905522</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8404126171772381</v>
+        <v>0.8403999074523104</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8870103397442763</v>
+        <v>0.8868945776763489</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1304</v>
@@ -5245,19 +5245,19 @@
         <v>900395</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>883180</v>
+        <v>880383</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>918710</v>
+        <v>918675</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8594494173260395</v>
+        <v>0.8594494173260397</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8430173132626171</v>
+        <v>0.8403472137371637</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8769309979264918</v>
+        <v>0.8768980902449018</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2207</v>
@@ -5266,19 +5266,19 @@
         <v>1806429</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1773528</v>
+        <v>1768639</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1834940</v>
+        <v>1834938</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.862619036318292</v>
+        <v>0.8626190363182921</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8469082853608696</v>
+        <v>0.844573547443626</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.876233814808272</v>
+        <v>0.8762331861694416</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>263374</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>232988</v>
+        <v>235378</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>295204</v>
+        <v>295329</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.2698695334214575</v>
+        <v>0.2698695334214574</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2387340708754284</v>
+        <v>0.2411830740914641</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3024856256283119</v>
+        <v>0.3026135684742782</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>336</v>
@@ -5391,19 +5391,19 @@
         <v>232158</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>209943</v>
+        <v>209385</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>259049</v>
+        <v>259582</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.2553212869429899</v>
+        <v>0.25532128694299</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2308898011925541</v>
+        <v>0.230276012797139</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2848944138852127</v>
+        <v>0.2854813864999698</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>591</v>
@@ -5412,19 +5412,19 @@
         <v>495532</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>455065</v>
+        <v>458605</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>536827</v>
+        <v>534795</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.2628525818731222</v>
+        <v>0.2628525818731221</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2413873831298342</v>
+        <v>0.2432649681572927</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2847576795427104</v>
+        <v>0.2836797748218646</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>712555</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>680725</v>
+        <v>680600</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>742941</v>
+        <v>740551</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7301304665785424</v>
+        <v>0.7301304665785425</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.697514374371688</v>
+        <v>0.6973864315257218</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.761265929124571</v>
+        <v>0.7588169259085359</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>987</v>
@@ -5462,19 +5462,19 @@
         <v>677121</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>650230</v>
+        <v>649697</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>699336</v>
+        <v>699894</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7446787130570101</v>
+        <v>0.7446787130570102</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7151055861147874</v>
+        <v>0.7145186135000302</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.769110198807446</v>
+        <v>0.7697239872028609</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1679</v>
@@ -5483,19 +5483,19 @@
         <v>1389676</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1348381</v>
+        <v>1350413</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1430143</v>
+        <v>1426603</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.737147418126878</v>
+        <v>0.7371474181268778</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7152423204572895</v>
+        <v>0.7163202251781354</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7586126168701659</v>
+        <v>0.7567350318427076</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>470781</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>428043</v>
+        <v>429507</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>513930</v>
+        <v>521053</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1352321426298171</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1229554586056937</v>
+        <v>0.1233761336952294</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1476264365910285</v>
+        <v>0.1496725585290727</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>693</v>
@@ -5608,19 +5608,19 @@
         <v>490495</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>454900</v>
+        <v>459191</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>528748</v>
+        <v>528409</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1326972019695047</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.123067455040112</v>
+        <v>0.1242282868383227</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1430459595855089</v>
+        <v>0.1429543414688695</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1136</v>
@@ -5629,19 +5629,19 @@
         <v>961277</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>902229</v>
+        <v>904790</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1020406</v>
+        <v>1016926</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1339266946952214</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1256999888574549</v>
+        <v>0.126056882700305</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1421647000207346</v>
+        <v>0.1416797857476386</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3010503</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2967354</v>
+        <v>2960231</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3053241</v>
+        <v>3051777</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8647678573701829</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8523735634089716</v>
+        <v>0.8503274414709274</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8770445413943062</v>
+        <v>0.8766238663047707</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4614</v>
@@ -5679,19 +5679,19 @@
         <v>3205855</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3167602</v>
+        <v>3167941</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3241450</v>
+        <v>3237159</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8673027980304954</v>
+        <v>0.8673027980304953</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8569540404144915</v>
+        <v>0.8570456585311303</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.876932544959888</v>
+        <v>0.8757717131616772</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7512</v>
@@ -5700,19 +5700,19 @@
         <v>6216358</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6157229</v>
+        <v>6160709</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6275406</v>
+        <v>6272845</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8660733053047787</v>
+        <v>0.8660733053047786</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8578352999792653</v>
+        <v>0.8583202142523614</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8743000111425449</v>
+        <v>0.8739431172996949</v>
       </c>
     </row>
     <row r="18">
